--- a/pcb/BOM.xlsx
+++ b/pcb/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\keyboards\Frankenduck\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD92DC6F-88FB-41EB-A004-CEBEEDDD3FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34B7D18-1103-49EE-BC16-06CA86AC42C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="1095" windowWidth="17820" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>https://nl.aliexpress.com/item/4000124774672.html?spm=a2g0s.9042311.0.0.48a44c4dNnzjvI</t>
   </si>
@@ -42,9 +42,6 @@
     <t>https://nl.aliexpress.com/item/4000475685852.html?spm=a2g0s.9042311.0.0.48a44c4dNnzjvI</t>
   </si>
   <si>
-    <t>keycaps</t>
-  </si>
-  <si>
     <t>https://nl.aliexpress.com/item/4000175871432.html?spm=a2g0s.9042311.0.0.48a44c4dNnzjvI</t>
   </si>
   <si>
@@ -154,6 +151,18 @@
   </si>
   <si>
     <t>reverse mount sk6812 mini-e rgb</t>
+  </si>
+  <si>
+    <t>expensive keycaps</t>
+  </si>
+  <si>
+    <t>cheaper keycaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> or 17</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/4000645380162.html?spm=a2g0s.9042311.0.0.b8384c4dufLh43</t>
   </si>
 </sst>
 </file>
@@ -482,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,21 +506,21 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -522,7 +531,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>17</v>
@@ -533,227 +542,239 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1206</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1206</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>805</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>805</v>
       </c>
-      <c r="F7" t="s">
-        <v>26</v>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>805</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>805</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
+      <c r="F9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>805</v>
       </c>
-      <c r="F10" t="s">
-        <v>26</v>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>805</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>805</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
-        <v>26</v>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
-        <v>36</v>
+      <c r="E20" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{3CA7D141-F0DC-4AE0-967A-C78F06A77151}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{A9D602C1-3EA5-4D7F-BBCE-5AD7FE130657}"/>
-    <hyperlink ref="F12" r:id="rId3" xr:uid="{5F643E5E-8CDD-47D5-866D-423C11134D91}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{8A9CB0BE-1D22-4E42-BC9C-E846A451E7AD}"/>
-    <hyperlink ref="F5" r:id="rId5" xr:uid="{BE6496A4-7AF9-44A4-9560-A1EEF6C05A7A}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{9C81B2A1-F337-47F8-A265-D65A82940CA9}"/>
-    <hyperlink ref="F9" r:id="rId7" xr:uid="{1F31A932-9493-49F3-97EE-FFCD873CB2BB}"/>
-    <hyperlink ref="F14" r:id="rId8" xr:uid="{E516EB17-9815-4397-9604-A43A7D83B8E4}"/>
-    <hyperlink ref="F13" r:id="rId9" xr:uid="{AA09E35D-F63A-44D0-A920-6EDB2B61EC1F}"/>
-    <hyperlink ref="F15" r:id="rId10" xr:uid="{DA9BE25B-252C-4F26-8344-80DF41B5C6EF}"/>
-    <hyperlink ref="F16" r:id="rId11" xr:uid="{06ECCABD-8FEC-401A-972B-62B8FAC008CE}"/>
-    <hyperlink ref="F17" r:id="rId12" xr:uid="{D61D230B-AB2A-44C4-982B-C8C8552AD6D9}"/>
+    <hyperlink ref="F13" r:id="rId3" xr:uid="{5F643E5E-8CDD-47D5-866D-423C11134D91}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{8A9CB0BE-1D22-4E42-BC9C-E846A451E7AD}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{BE6496A4-7AF9-44A4-9560-A1EEF6C05A7A}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{9C81B2A1-F337-47F8-A265-D65A82940CA9}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{1F31A932-9493-49F3-97EE-FFCD873CB2BB}"/>
+    <hyperlink ref="F15" r:id="rId8" xr:uid="{E516EB17-9815-4397-9604-A43A7D83B8E4}"/>
+    <hyperlink ref="F14" r:id="rId9" xr:uid="{AA09E35D-F63A-44D0-A920-6EDB2B61EC1F}"/>
+    <hyperlink ref="F16" r:id="rId10" xr:uid="{DA9BE25B-252C-4F26-8344-80DF41B5C6EF}"/>
+    <hyperlink ref="F17" r:id="rId11" xr:uid="{06ECCABD-8FEC-401A-972B-62B8FAC008CE}"/>
+    <hyperlink ref="F18" r:id="rId12" xr:uid="{D61D230B-AB2A-44C4-982B-C8C8552AD6D9}"/>
+    <hyperlink ref="F4" r:id="rId13" xr:uid="{35C1DEEF-B650-436B-BF9F-83ECBC64BE17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pcb/BOM.xlsx
+++ b/pcb/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\keyboards\Frankenduck\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34B7D18-1103-49EE-BC16-06CA86AC42C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0930D134-A618-4080-B677-03AD4D564A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>https://nl.aliexpress.com/item/32802051702.html?spm=a2g0s.9042311.0.0.48a44c4dNnzjvI</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/snapshot/0.html?spm=a2g0s.9042647.6.10.22d74c4doi5USO&amp;orderId=8018711130030459&amp;productId=4000350633981</t>
-  </si>
-  <si>
     <t>amoled connector</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>https://nl.aliexpress.com/item/4000645380162.html?spm=a2g0s.9042311.0.0.b8384c4dufLh43</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/4000350633981.html?spm=a2g0s.9042311.0.0.40694c4dOnmwa1</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,21 +506,21 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>17</v>
@@ -542,21 +542,21 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>2</v>
@@ -567,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -576,7 +576,7 @@
         <v>1206</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
@@ -607,7 +607,7 @@
         <v>805</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -621,7 +621,7 @@
         <v>805</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>805</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -666,18 +666,21 @@
         <v>805</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -687,16 +690,13 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -729,35 +729,35 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
